--- a/BBDD/CSV/alertas_ataque_pa.xlsx
+++ b/BBDD/CSV/alertas_ataque_pa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{87B9966A-67B9-447C-97AF-C43D29FC56B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="14_{87B9966A-67B9-447C-97AF-C43D29FC56B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D1D0C11-3DB6-47B9-A609-057DE9CC8A3F}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="1230" windowWidth="25910" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7720" yWindow="1700" windowWidth="25910" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="185">
   <si>
     <t>T1595.002-Port_Scanning_[3].pcapng</t>
   </si>
@@ -618,6 +618,18 @@
   </si>
   <si>
     <t>14978, 9999, 14984</t>
+  </si>
+  <si>
+    <t>31914, 55873</t>
+  </si>
+  <si>
+    <t>53310, 94328</t>
+  </si>
+  <si>
+    <t>30520, 9999</t>
+  </si>
+  <si>
+    <t>35364, 9999, 30520, 59582</t>
   </si>
 </sst>
 </file>
@@ -1126,13 +1138,14 @@
   <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1153,8 +1166,8 @@
       <c r="B2" s="6">
         <v>31914</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>138</v>
+      <c r="C2" s="12">
+        <v>31914</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1165,7 +1178,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1186,8 +1199,8 @@
       <c r="B5" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
+      <c r="C5" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1219,8 +1232,8 @@
       <c r="B8" s="6">
         <v>31914</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
+      <c r="C8" s="12">
+        <v>31914</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1241,8 +1254,8 @@
       <c r="B10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
+      <c r="C10" s="12">
+        <v>31914</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1256,7 +1269,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>118</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>158</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1274,8 +1287,8 @@
       <c r="B13" s="6">
         <v>92322</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>138</v>
+      <c r="C13" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1340,7 +1353,7 @@
       <c r="B19" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1351,8 +1364,8 @@
       <c r="B20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>138</v>
+      <c r="C20" s="12">
+        <v>31914</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1417,8 +1430,8 @@
       <c r="B26" s="6">
         <v>92322</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>138</v>
+      <c r="C26" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1520,7 +1533,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1528,7 +1541,7 @@
         <v>168</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1575,7 +1588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>98</v>
       </c>
@@ -1583,7 +1596,7 @@
         <v>153</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1594,7 +1607,7 @@
         <v>147</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1626,8 +1639,8 @@
       <c r="B45" s="6">
         <v>9999</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>138</v>
+      <c r="C45" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1637,8 +1650,8 @@
       <c r="B46" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>138</v>
+      <c r="C46" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1648,8 +1661,8 @@
       <c r="B47" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>138</v>
+      <c r="C47" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1660,7 +1673,7 @@
         <v>141</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1671,7 +1684,7 @@
         <v>141</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1681,8 +1694,8 @@
       <c r="B50" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>138</v>
+      <c r="C50" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="158" thickBot="1" x14ac:dyDescent="0.4">
@@ -1692,8 +1705,8 @@
       <c r="B51" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>138</v>
+      <c r="C51" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="53" thickBot="1" x14ac:dyDescent="0.4">
@@ -1703,8 +1716,8 @@
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>138</v>
+      <c r="C52" s="12">
+        <v>14984</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1740,15 +1753,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="12">
-        <v>14984</v>
+      <c r="C56" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1769,8 +1782,8 @@
       <c r="B58" s="6">
         <v>31914</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>138</v>
+      <c r="C58" s="12">
+        <v>31914</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1780,8 +1793,8 @@
       <c r="B59" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>138</v>
+      <c r="C59" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1791,7 +1804,9 @@
       <c r="B60" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="12">
+        <v>31710</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
@@ -1800,8 +1815,8 @@
       <c r="B61" s="6">
         <v>9999</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>138</v>
+      <c r="C61" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1811,8 +1826,8 @@
       <c r="B62" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>138</v>
+      <c r="C62" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1822,8 +1837,8 @@
       <c r="B63" s="6">
         <v>9999</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>138</v>
+      <c r="C63" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1833,8 +1848,8 @@
       <c r="B64" s="6">
         <v>9999</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>138</v>
+      <c r="C64" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1848,7 +1863,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -1856,10 +1871,10 @@
         <v>173</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>101</v>
       </c>
@@ -1867,7 +1882,7 @@
         <v>174</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1877,8 +1892,8 @@
       <c r="B68" s="6">
         <v>92322</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>138</v>
+      <c r="C68" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1899,8 +1914,8 @@
       <c r="B70" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>138</v>
+      <c r="C70" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1910,7 +1925,7 @@
       <c r="B71" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1966,7 +1981,7 @@
         <v>175</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1998,8 +2013,8 @@
       <c r="B79" s="6">
         <v>56497</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>138</v>
+      <c r="C79" s="12">
+        <v>56497</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2053,8 +2068,8 @@
       <c r="B84" s="6">
         <v>31914</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>138</v>
+      <c r="C84" s="12">
+        <v>31914</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2108,8 +2123,8 @@
       <c r="B89" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>138</v>
+      <c r="C89" s="12">
+        <v>14984</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2119,8 +2134,8 @@
       <c r="B90" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>138</v>
+      <c r="C90" s="12">
+        <v>14984</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2175,7 +2190,7 @@
         <v>160</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2186,7 +2201,7 @@
         <v>143</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2329,7 +2344,7 @@
         <v>139</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2339,8 +2354,8 @@
       <c r="B110" s="6">
         <v>9999</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>138</v>
+      <c r="C110" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2350,8 +2365,8 @@
       <c r="B111" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>138</v>
+      <c r="C111" s="12">
+        <v>92322</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2439,7 +2454,7 @@
         <v>139</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2472,7 +2487,7 @@
         <v>179</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2482,8 +2497,8 @@
       <c r="B123" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>138</v>
+      <c r="C123" s="12">
+        <v>56610</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2516,7 +2531,7 @@
         <v>137</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2582,7 +2597,7 @@
         <v>180</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2604,7 +2619,7 @@
         <v>142</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2626,7 +2641,7 @@
         <v>152</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
